--- a/data/affiliations_cement_wos.xlsx
+++ b/data/affiliations_cement_wos.xlsx
@@ -393,7 +393,7 @@
         <v>GHENT UNIVERSITY</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>SOUTHEAST UNIVERSITY CHINA</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>SHENZHEN UNIVERSITY</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>TONGJI UNIVERSITY</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -425,23 +425,23 @@
         <v>DELFT UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>WUHAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>POLYTECHNIC UNIVERSITY OF MILAN</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>POLYTECHNIC UNIVERSITY OF MILAN</v>
+        <v>WUHAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -449,55 +449,55 @@
         <v>HARBIN INSTITUTE OF TECHNOLOGY</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CHANG AN UNIVERSITY</v>
+        <v>UNIVERSITY OF CAMBRIDGE</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>UNIVERSITY OF CAMBRIDGE</v>
+        <v>UNIVERSITY OF MICHIGAN</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>EGYPTIAN KNOWLEDGE BANK EKB</v>
+        <v>UNIVERSITY OF MICHIGAN SYSTEM</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>NATIONAL INSTITUTE OF TECHNOLOGY NIT SYSTEM</v>
+        <v>CARDIFF UNIVERSITY</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>CARDIFF UNIVERSITY</v>
+        <v>EGYPTIAN KNOWLEDGE BANK EKB</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>DALIAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>NANYANG TECHNOLOGICAL UNIVERSITY</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -505,28 +505,28 @@
         <v>TORONTO METROPOLITAN UNIVERSITY</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>HONG KONG POLYTECHNIC UNIVERSITY</v>
+        <v>VRIJE UNIVERSITEIT BRUSSEL</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>VRIJE UNIVERSITEIT BRUSSEL</v>
+        <v>POLYTECHNIC UNIVERSITY OF TURIN</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>UNIVERSITAT POLITECNICA DE VALENCIA</v>
+        <v>NATIONAL INSTITUTE OF TECHNOLOGY NIT SYSTEM</v>
       </c>
       <c r="B19">
         <v>22</v>
@@ -534,15 +534,15 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>LOUISIANA STATE UNIVERSITY</v>
+        <v>UNITED STATES DEPARTMENT OF ENERGY DOE</v>
       </c>
       <c r="B20">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>LOUISIANA STATE UNIVERSITY SYSTEM</v>
+        <v>CHONGQING UNIVERSITY</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -550,95 +550,95 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>UNIVERSITY OF MICHIGAN</v>
+        <v>GAZI UNIVERSITY</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>UNIVERSITY OF MICHIGAN SYSTEM</v>
+        <v>HANYANG UNIVERSITY</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>KU LEUVEN</v>
+        <v>HACETTEPE UNIVERSITY</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>NATIONAL UNIVERSITY OF SCIENCES TECHNOLOGY PAKISTAN</v>
+        <v>KU LEUVEN</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>CHONGQING UNIVERSITY</v>
+        <v>UNIVERSITAT POLITECNICA DE VALENCIA</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>GAZI UNIVERSITY</v>
+        <v>CENTRAL SOUTH UNIVERSITY</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>JIANGSU UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>CHANG AN UNIVERSITY</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>HACETTEPE UNIVERSITY</v>
+        <v>HOHAI UNIVERSITY</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>HANYANG UNIVERSITY</v>
+        <v>HONG KONG POLYTECHNIC UNIVERSITY</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>NANYANG TECHNOLOGICAL UNIVERSITY</v>
+        <v>JIANGSU UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ZHEJIANG UNIVERSITY</v>
+        <v>SHANDONG UNIVERSITY</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>HOHAI UNIVERSITY</v>
+        <v>UNIVERSITE LIBRE DE BRUXELLES</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>POLYTECHNIC UNIVERSITY OF TURIN</v>
+        <v>UNIVERSITY OF CALIFORNIA SYSTEM</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>SHANDONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>UNIVERSITY OF TEXAS SYSTEM</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>CHINA UNIVERSITY OF GEOSCIENCES</v>
+        <v>CONSEJO SUPERIOR DE INVESTIGACIONES CIENTIFICAS CSIC</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>SUNGKYUNKWAN UNIVERSITY SKKU</v>
+        <v>DALIAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B37">
         <v>16</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ZHENGZHOU UNIVERSITY</v>
+        <v>NATIONAL UNIVERSITY OF SCIENCES TECHNOLOGY PAKISTAN</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -686,31 +686,31 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>CENTRAL SOUTH UNIVERSITY</v>
+        <v>SHANDONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>CONSEJO SUPERIOR DE INVESTIGACIONES CIENTIFICAS CSIC</v>
+        <v>UNIVERSITY OF TECHNOLOGY SYDNEY</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>QINGDAO UNIVERSITY OF TECHNOLOGY</v>
+        <v>ZHEJIANG UNIVERSITY</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>UNITED STATES DEPARTMENT OF ENERGY DOE</v>
+        <v>CENTRE NATIONAL DE LA RECHERCHE SCIENTIFIQUE CNRS</v>
       </c>
       <c r="B42">
         <v>15</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>UNIVERSITI TEKNOLOGI MALAYSIA</v>
+        <v>GAZIANTEP UNIVERSITY</v>
       </c>
       <c r="B43">
         <v>15</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>UNIVERSITY OF BATH</v>
+        <v>PRINCE SATTAM BIN ABDULAZIZ UNIVERSITY</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -734,23 +734,23 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>KANGWON NATIONAL UNIVERSITY</v>
+        <v>TIANJIN UNIVERSITY</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>PRINCE SATTAM BIN ABDULAZIZ UNIVERSITY</v>
+        <v>UNIVERSITY OF BATH</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>UNIVERSITY OF CALIFORNIA SYSTEM</v>
+        <v>CHINA UNIVERSITY OF PETROLEUM</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -758,15 +758,15 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>CZECH TECHNICAL UNIVERSITY PRAGUE</v>
+        <v>SUNGKYUNKWAN UNIVERSITY SKKU</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>NATIONAL CHENG KUNG UNIVERSITY</v>
+        <v>CHINESE ACADEMY OF SCIENCES</v>
       </c>
       <c r="B49">
         <v>13</v>
@@ -774,39 +774,39 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>KOREA UNIVERSITY</v>
+        <v>NATIONAL CHENG KUNG UNIVERSITY</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>LOUISIANA TRANSPORTAT RES CTR</v>
+        <v>QINGDAO UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>SHANDONG UNIVERSITY</v>
+        <v>SOUTHWEST PETROLEUM UNIVERSITY</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>TAIYUAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>YONSEI UNIVERSITY</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>UNIVERSITY OF NOTTINGHAM</v>
+        <v>FUZHOU UNIVERSITY</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>UNIVERSITY OF TEXAS SYSTEM</v>
+        <v>HONG KONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B55">
         <v>12</v>
@@ -822,47 +822,47 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>BEIJING UNIVERSITY OF TECHNOLOGY</v>
+        <v>KANGWON NATIONAL UNIVERSITY</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>CHINESE ACADEMY OF SCIENCES</v>
+        <v>KOREA UNIVERSITY</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>CHONGQING JIAOTONG UNIVERSITY</v>
+        <v>PACIFIC NORTHWEST NATIONAL LABORATORY</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>FUZHOU UNIVERSITY</v>
+        <v>SIM VZW</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>GACHON UNIVERSITY</v>
+        <v>ZHENGZHOU UNIVERSITY</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>HONG KONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>BEIJING UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B61">
         <v>11</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>ISLAMIC AZAD UNIVERSITY</v>
+        <v>CSIC INSTITUTO DE CIENCIAS DE LA CONSTRUCCION EDUARDO TORROJA IETCC</v>
       </c>
       <c r="B62">
         <v>11</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>PETER THE GREAT ST PETERSBURG POLYTECHNIC UNIVERSITY</v>
+        <v>LOUISIANA STATE UNIVERSITY</v>
       </c>
       <c r="B63">
         <v>11</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>SIM VZW</v>
+        <v>LOUISIANA STATE UNIVERSITY SYSTEM</v>
       </c>
       <c r="B64">
         <v>11</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>UNIVERSITE LIBRE DE BRUXELLES</v>
+        <v>NANJING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B65">
         <v>11</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>UNIVERSITY OF TECHNOLOGY SYDNEY</v>
+        <v>NATIONAL UNIVERSITY OF SINGAPORE</v>
       </c>
       <c r="B66">
         <v>11</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>XI AN UNIVERSITY OF ARCHITECTURE TECHNOLOGY</v>
+        <v>OZYEGIN UNIVERSITY</v>
       </c>
       <c r="B67">
         <v>11</v>
@@ -918,47 +918,47 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>CHANGSHA UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>UNIVERSITY OF CALIFORNIA LOS ANGELES</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>INDIAN INSTITUTE OF TECHNOLOGY SYSTEM IIT SYSTEM</v>
+        <v>UNIVERSITY OF ILLINOIS SYSTEM</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>LULEA UNIVERSITY OF TECHNOLOGY</v>
+        <v>UNIVERSITY OF ILLINOIS URBANA CHAMPAIGN</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>NATIONAL UNIVERSITY OF SINGAPORE</v>
+        <v>UNIVERSITY OF TOKYO</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>NORTHEAST FORESTRY UNIVERSITY CHINA</v>
+        <v>YANGZHOU UNIVERSITY</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>PACIFIC NORTHWEST NATIONAL LABORATORY</v>
+        <v>CHINA UNIVERSITY OF GEOSCIENCES</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SOUTH CHINA UNIVERSITY OF TECHNOLOGY</v>
+        <v>CZECH TECHNICAL UNIVERSITY PRAGUE</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>TIANJIN UNIVERSITY</v>
+        <v>FUTURE UNIVERSITY IN EGYPT</v>
       </c>
       <c r="B75">
         <v>10</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>UNIVERSIDAD DEL BIO BIO</v>
+        <v>GACHON UNIVERSITY</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>UNIVERSITY OF AL QADISIYAH</v>
+        <v>ISLAMIC AZAD UNIVERSITY</v>
       </c>
       <c r="B77">
         <v>10</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>UNIVERSITY OF BRADFORD</v>
+        <v>LULEA UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B78">
         <v>10</v>
@@ -1006,79 +1006,79 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>BAUHAUS UNIVERSITAT WEIMAR</v>
+        <v>NORWEGIAN UNIVERSITY OF SCIENCE TECHNOLOGY NTNU</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>COMSATS UNIVERSITY ISLAMABAD CUI</v>
+        <v>PETER THE GREAT ST PETERSBURG POLYTECHNIC UNIVERSITY</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>FUTURE UNIVERSITY IN EGYPT</v>
+        <v>SOUTH CHINA UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>KING FAHD UNIVERSITY OF PETROLEUM MINERALS</v>
+        <v>THAPAR INSTITUTE OF ENGINEERING TECHNOLOGY</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>MOSCOW STATE UNIVERSITY OF CIVIL ENGINEERING</v>
+        <v>UNIVERSIDADE FEDERAL DO RIO DE JANEIRO</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>SOUTHWEST PETROLEUM UNIVERSITY</v>
+        <v>UNIVERSITI TEKNOLOGI MALAYSIA</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>THAPAR INSTITUTE OF ENGINEERING TECHNOLOGY</v>
+        <v>UNIVERSITY OF BRADFORD</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>UNIVERSITY OF CALIFORNIA LOS ANGELES</v>
+        <v>UNIVERSITY OF TEXAS AUSTIN</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>UNIVERSITY OF ILLINOIS SYSTEM</v>
+        <v>WESTERN UNIVERSITY UNIVERSITY OF WESTERN ONTARIO</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>UNIVERSITY OF ILLINOIS URBANA CHAMPAIGN</v>
+        <v>ANHUI UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>UNIVERSITY OF WAIKATO</v>
+        <v>HEBEI UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>YONSEI UNIVERSITY</v>
+        <v>HENAN POLYTECHNIC UNIVERSITY</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>YUNNAN UNIVERSITY</v>
+        <v>IOWA STATE UNIVERSITY</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -1110,87 +1110,87 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>CHUNGNAM NATIONAL UNIVERSITY</v>
+        <v>MONASH UNIVERSITY</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>CSIC INSTITUTO DE CIENCIAS DE LA CONSTRUCCION EDUARDO TORROJA IETCC</v>
+        <v>NORTHEASTERN UNIVERSITY CHINA</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>HEBEI UNIVERSITY OF TECHNOLOGY</v>
+        <v>QATAR UNIVERSITY</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>HUAZHONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>TECHNICAL UNIVERSITY OF DENMARK</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>KOREA ADVANCED INSTITUTE OF SCIENCE TECHNOLOGY KAIST</v>
+        <v>TECHNISCHE UNIVERSITAT DRESDEN</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>NANJING UNIVERSITY OF SCIENCE TECHNOLOGY</v>
+        <v>UNIVERSITY OF HOUSTON</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>NINGBO UNIVERSITY</v>
+        <v>UNIVERSITY OF HOUSTON SYSTEM</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>NORTHEASTERN UNIVERSITY CHINA</v>
+        <v>UNIVERSITY OF QUEENSLAND</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>NORWEGIAN UNIVERSITY OF SCIENCE TECHNOLOGY NTNU</v>
+        <v>UNIVERSITY OF WISCONSIN SYSTEM</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>QATAR UNIVERSITY</v>
+        <v>YUNNAN UNIVERSITY</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>UNIVERSITY OF SCIENCE TECHNOLOGY BEIJING</v>
+        <v>BROOKHAVEN NATIONAL LABORATORY</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>UNIVERSITY OF TOKYO</v>
+        <v>CHINA NATIONAL PETROLEUM CORPORATION</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>UNIVERSITY OF TUN HUSSEIN ONN MALAYSIA</v>
+        <v>HOKKAIDO UNIVERSITY</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>UNIVERSITY OF WESTERN AUSTRALIA</v>
+        <v>JADAVPUR UNIVERSITY</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>UNIVERSITY OF WISCONSIN SYSTEM</v>
+        <v>KING FAHD UNIVERSITY OF PETROLEUM MINERALS</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>VELLORE INSTITUTE OF TECHNOLOGY VIT</v>
+        <v>KING KHALID UNIVERSITY</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>WESTERN UNIVERSITY UNIVERSITY OF WESTERN ONTARIO</v>
+        <v>KOREA ADVANCED INSTITUTE OF SCIENCE TECHNOLOGY KAIST</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>YANGZHOU UNIVERSITY</v>
+        <v>LOUISIANA TRANSPORTAT RES CTR</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -1254,55 +1254,55 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>AMRITA VISHWA VIDYAPEETHAM</v>
+        <v>NATIONAL ENERGY TECHNOLOGY LABORATORY USA</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>AMRITA VISHWA VIDYAPEETHAM COIMBATORE</v>
+        <v>SWISS FEDERAL INSTITUTES OF TECHNOLOGY DOMAIN</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>BEIJING JIAOTONG UNIVERSITY</v>
+        <v>UNIVERSITY OF AL QADISIYAH</v>
       </c>
       <c r="B112">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>CENTRE NATIONAL DE LA RECHERCHE SCIENTIFIQUE CNRS</v>
+        <v>UNIVERSITY OF TUN HUSSEIN ONN MALAYSIA</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>CHINA INSTITUTE OF WATER RESOURCES HYDROPOWER RESEARCH</v>
+        <v>UNIVERSITY OF WESTERN AUSTRALIA</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>FIRAT UNIVERSITY</v>
+        <v>UNIVERSITY OF WISCONSIN MADISON</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>GUANGZHOU UNIVERSITY</v>
+        <v>COMSATS UNIVERSITY ISLAMABAD CUI</v>
       </c>
       <c r="B116">
         <v>7</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>JIANGSU UNIVERSITY</v>
+        <v>ECOLE CENTRALE DE NANTES</v>
       </c>
       <c r="B117">
         <v>7</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>KING SAUD UNIVERSITY</v>
+        <v>GUANGZHOU UNIVERSITY</v>
       </c>
       <c r="B118">
         <v>7</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>KOREA CONFORM LABS</v>
+        <v>HAIHE LAB SUSTAINABLE CHEM TRANSFORMAT</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>LUBLIN UNIVERSITY OF TECHNOLOGY</v>
+        <v>HELMHOLTZ ASSOCIATION</v>
       </c>
       <c r="B120">
         <v>7</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>MCMASTER UNIVERSITY</v>
+        <v>KOREA CONFORM LABS</v>
       </c>
       <c r="B121">
         <v>7</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>NANCHANG UNIVERSITY</v>
+        <v>LUBLIN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B122">
         <v>7</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>NATIONAL CENTRE OF SCIENTIFIC RESEARCH DEMOKRITOS</v>
+        <v>MUGLA SITKI KOCMAN UNIVERSITY</v>
       </c>
       <c r="B123">
         <v>7</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>NATIONAL ENERGY TECHNOLOGY LABORATORY USA</v>
+        <v>NANCHANG UNIVERSITY</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>NORTHWESTERN UNIVERSITY</v>
+        <v>NANTES UNIVERSITE</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>PONTIFICIA UNIVERSIDAD CATOLICA DE CHILE</v>
+        <v>NINGBO UNIVERSITY</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>ROYAL MELBOURNE INSTITUTE OF TECHNOLOGY RMIT</v>
+        <v>NORTHWESTERN UNIVERSITY</v>
       </c>
       <c r="B127">
         <v>7</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>SHANDONG UNIVERSITY OF AERONAUTICS</v>
+        <v>ROYAL MELBOURNE INSTITUTE OF TECHNOLOGY RMIT</v>
       </c>
       <c r="B128">
         <v>7</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>SHANMUGHA ARTS SCIENCE TECHNOLOGY RESEARCH ACADEMY SASTRA</v>
+        <v>SATHYABAMA INSTITUTE OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B129">
         <v>7</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>SHANXI SHENGKE MICROORGANISM BLDG MAT TECHNOL CO L</v>
+        <v>SAVEETHA INSTITUTE OF MEDICAL TECHNICAL SCIENCE</v>
       </c>
       <c r="B130">
         <v>7</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>SUN YAT SEN UNIVERSITY</v>
+        <v>SEMYUNG UNIVERSITY</v>
       </c>
       <c r="B131">
         <v>7</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>TECHNISCHE UNIVERSITAT DRESDEN</v>
+        <v>SHANGHAI JIAO TONG UNIVERSITY</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>TEXAS A M UNIVERSITY SYSTEM</v>
+        <v>SHIJIAZHUANG TIEDAO UNIVERSITY</v>
       </c>
       <c r="B133">
         <v>7</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>UNIVERSIDAD DE CANTABRIA</v>
+        <v>UNIVERSITY OF JINAN</v>
       </c>
       <c r="B134">
         <v>7</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>UNIVERSITY OF NOVI SAD</v>
+        <v>UNIVERSITY OF MIAMI</v>
       </c>
       <c r="B135">
         <v>7</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>VIT VELLORE</v>
+        <v>UNIVERSITY OF NOVI SAD</v>
       </c>
       <c r="B136">
         <v>7</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>WASHINGTON STATE UNIVERSITY</v>
+        <v>UNIVERSITY OF WAIKATO</v>
       </c>
       <c r="B137">
         <v>7</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>XI AN UNIVERSITY OF TECHNOLOGY</v>
+        <v>WASHINGTON STATE UNIVERSITY</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -1486,23 +1486,23 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>BIRLA INSTITUTE OF TECHNOLOGY SCIENCE PILANI BITS PILANI</v>
+        <v>WUHAN TEXTILE UNIVERSITY</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>BROOKHAVEN NATIONAL LABORATORY</v>
+        <v>XI AN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>CHINA UNIVERSITY OF PETROLEUM</v>
+        <v>AGH UNIVERSITY OF KRAKOW</v>
       </c>
       <c r="B141">
         <v>6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>FUJIAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>AMRITA VISHWA VIDYAPEETHAM</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>HENAN POLYTECHNIC UNIVERSITY</v>
+        <v>AMRITA VISHWA VIDYAPEETHAM COIMBATORE</v>
       </c>
       <c r="B143">
         <v>6</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>HUBEI UNIVERSITY OF TECHNOLOGY</v>
+        <v>ARISTOTLE UNIVERSITY OF THESSALONIKI</v>
       </c>
       <c r="B144">
         <v>6</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>IOWA STATE UNIVERSITY</v>
+        <v>BAUHAUS UNIVERSITAT WEIMAR</v>
       </c>
       <c r="B145">
         <v>6</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>IRAN UNIVERSITY SCIENCE TECHNOLOGY</v>
+        <v>BEIJING JIAOTONG UNIVERSITY</v>
       </c>
       <c r="B146">
         <v>6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>LIVERPOOL JOHN MOORES UNIVERSITY</v>
+        <v>BIRLA INSTITUTE OF TECHNOLOGY SCIENCE PILANI BITS PILANI</v>
       </c>
       <c r="B147">
         <v>6</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>MONASH UNIVERSITY</v>
+        <v>CHINA INSTITUTE OF WATER RESOURCES HYDROPOWER RESEARCH</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>MUGLA SITKI KOCMAN UNIVERSITY</v>
+        <v>CHINA UNIVERSITY OF MINING TECHNOLOGY</v>
       </c>
       <c r="B149">
         <v>6</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>NAJRAN UNIVERSITY</v>
+        <v>CHONGQING JIAOTONG UNIVERSITY</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>PENNSYLVANIA COMMONWEALTH SYSTEM OF HIGHER EDUCATION PCSHE</v>
+        <v>CHONNAM NATIONAL UNIVERSITY</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>POLYTECHNIQUE MONTREAL</v>
+        <v>CHUNGNAM NATIONAL UNIVERSITY</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>RWTH AACHEN UNIVERSITY</v>
+        <v>CRACOW UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>SAVEETHA INSTITUTE OF MEDICAL TECHNICAL SCIENCE</v>
+        <v>CURTIN UNIVERSITY</v>
       </c>
       <c r="B154">
         <v>6</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>SAVEETHA SCHOOL OF ENGINEERING</v>
+        <v>DOKUZ EYLUL UNIVERSITY</v>
       </c>
       <c r="B155">
         <v>6</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>SEMYUNG UNIVERSITY</v>
+        <v>EGE UNIVERSITY</v>
       </c>
       <c r="B156">
         <v>6</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>SHANXI UNIVERSITY</v>
+        <v>HUAZHONG UNIVERSITY OF SCIENCE TECHNOLOGY</v>
       </c>
       <c r="B157">
         <v>6</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>SHIJIAZHUANG TIEDAO UNIVERSITY</v>
+        <v>INDIAN INSTITUTE OF TECHNOLOGY SYSTEM IIT SYSTEM</v>
       </c>
       <c r="B158">
         <v>6</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>SOUTHWEST JIAOTONG UNIVERSITY</v>
+        <v>JIANGSU UNIVERSITY</v>
       </c>
       <c r="B159">
         <v>6</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>SRM INSTITUTE OF SCIENCE TECHNOLOGY CHENNAI</v>
+        <v>KING SAUD UNIVERSITY</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>SWISS FEDERAL INSTITUTES OF TECHNOLOGY DOMAIN</v>
+        <v>KIRIKKALE UNIVERSITY</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>TECHNICAL UNIVERSITY OF DENMARK</v>
+        <v>LEIBNIZ UNIVERSITY HANNOVER</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>TEXAS A M UNIVERSITY COLLEGE STATION</v>
+        <v>MCMASTER UNIVERSITY</v>
       </c>
       <c r="B163">
         <v>6</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>UNIVERSIDADE DE LISBOA</v>
+        <v>NAJRAN UNIVERSITY</v>
       </c>
       <c r="B164">
         <v>6</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>UNIVERSIDADE DO MINHO</v>
+        <v>NATIONAL CENTRE OF SCIENTIFIC RESEARCH DEMOKRITOS</v>
       </c>
       <c r="B165">
         <v>6</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>UNIVERSITE DE MONTREAL</v>
+        <v>NORTHEAST FORESTRY UNIVERSITY CHINA</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>UNIVERSITY OF ADELAIDE</v>
+        <v>PENNSYLVANIA COMMONWEALTH SYSTEM OF HIGHER EDUCATION PCSHE</v>
       </c>
       <c r="B167">
         <v>6</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>UNIVERSITY OF HOUSTON</v>
+        <v>POLYTECHNIQUE MONTREAL</v>
       </c>
       <c r="B168">
         <v>6</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>UNIVERSITY OF HOUSTON SYSTEM</v>
+        <v>SAVEETHA SCHOOL OF ENGINEERING</v>
       </c>
       <c r="B169">
         <v>6</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>UNIVERSITY OF TEXAS ARLINGTON</v>
+        <v>SINTEF</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>UNIVERSITY SYSTEM OF GEORGIA</v>
+        <v>SOUTHWEST JIAOTONG UNIVERSITY</v>
       </c>
       <c r="B171">
         <v>6</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>UNIVERSITY SYSTEM OF OHIO</v>
+        <v>SUN YAT SEN UNIVERSITY</v>
       </c>
       <c r="B172">
         <v>6</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>WUHAN TEXTILE UNIVERSITY</v>
+        <v>TAIYUAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B173">
         <v>6</v>
@@ -1766,95 +1766,95 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>ABDULLAH GUL UNIVERSITY</v>
+        <v>TECHNICAL UNIVERSITY OF CLUJ NAPOCA</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>AGH UNIVERSITY OF KRAKOW</v>
+        <v>TOHOKU UNIVERSITY</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>ANHUI UNIVERSITY OF TECHNOLOGY</v>
+        <v>UNIVERSIDADE FEDERAL DO PARANA</v>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>ARISTOTLE UNIVERSITY OF THESSALONIKI</v>
+        <v>UNIVERSITE DE MONTREAL</v>
       </c>
       <c r="B177">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>BEIHANG UNIVERSITY</v>
+        <v>UNIVERSITY OF ADELAIDE</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>CHONNAM NATIONAL UNIVERSITY</v>
+        <v>UNIVERSITY OF LONDON</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>CITY UNIVERSITY OF HONG KONG</v>
+        <v>UNIVERSITY OF SHERBROOKE</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>CRACOW UNIVERSITY OF TECHNOLOGY</v>
+        <v>UNIVERSITY OF SOUTH AUSTRALIA</v>
       </c>
       <c r="B181">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>CURTIN UNIVERSITY</v>
+        <v>UNIVERSITY OF SOUTHERN CALIFORNIA</v>
       </c>
       <c r="B182">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>DREXEL UNIVERSITY</v>
+        <v>UNIVERSITY OF TEXAS ARLINGTON</v>
       </c>
       <c r="B183">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>EGE UNIVERSITY</v>
+        <v>ZAGAZIG UNIVERSITY</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>GUANGXI UNIVERSITY</v>
+        <v>CHOSUN UNIVERSITY</v>
       </c>
       <c r="B185">
         <v>5</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>HELMHOLTZ ASSOCIATION</v>
+        <v>CITY UNIVERSITY OF HONG KONG</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>HOKKAIDO UNIVERSITY</v>
+        <v>CNRS INSTITUTE FOR ENGINEERING SYSTEMS SCIENCES INSIS</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>INDIAN INSTITUTE OF ENGINEERING SCIENCE TECHNOLOGY SHIBPUR IIEST</v>
+        <v>DREXEL UNIVERSITY</v>
       </c>
       <c r="B188">
         <v>5</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>ISFAHAN UNIVERSITY OF TECHNOLOGY</v>
+        <v>ETH ZURICH</v>
       </c>
       <c r="B189">
         <v>5</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>KING KHALID UNIVERSITY</v>
+        <v>FUJIAN UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>KIRIKKALE UNIVERSITY</v>
+        <v>GUANGDONG LOW CARBON TECHNOL ENGN CTR BLDG MAT</v>
       </c>
       <c r="B191">
         <v>5</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>LANZHOU UNIVERSITY OF TECHNOLOGY</v>
+        <v>HARVARD UNIVERSITY</v>
       </c>
       <c r="B192">
         <v>5</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>MANSOURA UNIVERSITY</v>
+        <v>HUBEI UNIVERSITY OF TECHNOLOGY</v>
       </c>
       <c r="B193">
         <v>5</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>NATIONAL CHUNG HSING UNIVERSITY</v>
+        <v>HUNAN UNIVERSITY</v>
       </c>
       <c r="B194">
         <v>5</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>NATIONAL INSTITUTE OF TECHNOLOGY RAIPUR</v>
+        <v>KYOTO UNIVERSITY</v>
       </c>
       <c r="B195">
         <v>5</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>NINGXIA UNIVERSITY</v>
+        <v>MONASH UNIVERSITY MALAYSIA</v>
       </c>
       <c r="B196">
         <v>5</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>OZYEGIN UNIVERSITY</v>
+        <v>MUSTAFA KEMAL UNIVERSITY</v>
       </c>
       <c r="B197">
         <v>5</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>RIGA TECHNICAL UNIVERSITY</v>
+        <v>NANJING UNIVERSITY OF AERONAUTICS ASTRONAUTICS</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>SHIRAZ UNIVERSITY OF MEDICAL SCIENCE</v>
+        <v>NORTHWESTERN POLYTECHNICAL UNIVERSITY</v>
       </c>
       <c r="B199">
         <v>5</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>TSINGHUA UNIVERSITY</v>
+        <v>SEJONG UNIVERSITY</v>
       </c>
       <c r="B200">
         <v>5</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>UNIVERSIDADE FEDERAL DO PARANA</v>
+        <v>SHANDONG UNIVERSITY OF AERONAUTICS</v>
       </c>
       <c r="B201">
         <v>5</v>
